--- a/INTLINE/data/566/BTP/COR-Summary.xlsx
+++ b/INTLINE/data/566/BTP/COR-Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Joann\COR 2004-2022\COR 2022\corapr2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Joann\COR 2004-2022\COR 2022\cormay2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="2022 v2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$J$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$K$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>National Government Cash Operation Report</t>
   </si>
@@ -170,7 +170,10 @@
     <t>Apr</t>
   </si>
   <si>
-    <t xml:space="preserve">Excludes actual disbursement from MDS Trust Accounts amounting to P12,881 Million. </t>
+    <t>May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excludes actual disbursement from MDS Trust Accounts amounting to P17,370 Million. </t>
   </si>
   <si>
     <r>
@@ -224,7 +227,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -234,7 +237,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -246,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,14 +321,20 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -379,7 +388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -390,14 +399,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -405,6 +410,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -417,20 +423,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2 2" xfId="2"/>
@@ -716,13 +728,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,12 +744,13 @@
     <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -746,7 +759,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -755,7 +768,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -764,937 +777,1064 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="8" spans="1:11" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11">
-        <f t="shared" ref="F9:J9" si="0">+F10+F21+F28</f>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
+        <f t="shared" ref="F9:K9" si="0">+F10+F21+F28</f>
         <v>278075</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>212402</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f t="shared" ref="H9:I9" si="1">+H10+H21+H28</f>
         <v>293883</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
         <v>347948.68</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
+        <f t="shared" ref="J9" si="2">+J10+J21+J28</f>
+        <v>304915</v>
+      </c>
+      <c r="K9" s="10">
         <f t="shared" si="0"/>
-        <v>1132308.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>1437223.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="11">
-        <f t="shared" ref="F10:J10" si="2">+F11+F16+F19</f>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:K10" si="3">+F11+F16+F19</f>
         <v>255294</v>
       </c>
-      <c r="G10" s="11">
-        <f t="shared" si="2"/>
+      <c r="G10" s="10">
+        <f t="shared" si="3"/>
         <v>197805</v>
       </c>
-      <c r="H10" s="11">
-        <f t="shared" ref="H10:I10" si="3">+H11+H16+H19</f>
+      <c r="H10" s="10">
+        <f t="shared" ref="H10:I10" si="4">+H11+H16+H19</f>
         <v>244096</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
+        <f t="shared" si="4"/>
+        <v>306896</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10" si="5">+J11+J16+J19</f>
+        <v>285558</v>
+      </c>
+      <c r="K10" s="10">
         <f t="shared" si="3"/>
-        <v>306896</v>
-      </c>
-      <c r="J10" s="11">
-        <f t="shared" si="2"/>
-        <v>1004091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1289649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>195775</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>136607</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>170384</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>239604</v>
       </c>
-      <c r="J11" s="12">
-        <f>SUM(F11:I11)</f>
-        <v>742370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E12" s="9" t="s">
+      <c r="J11" s="11">
+        <v>216618</v>
+      </c>
+      <c r="K11" s="11">
+        <f>SUM(F11:J11)</f>
+        <v>958988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>3018</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>1583</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>1182</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>5190</v>
       </c>
-      <c r="J13" s="12">
-        <f t="shared" ref="J13:J14" si="4">SUM(F13:I13)</f>
-        <v>10973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="11">
+        <v>1792</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" ref="K13:K14" si="6">SUM(F13:J13)</f>
+        <v>12765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>34</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>32</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>35</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>38</v>
       </c>
-      <c r="J14" s="12">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
+      <c r="J14" s="11">
+        <v>2622</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="6"/>
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>58346</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>59433</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>70778</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>65669</v>
       </c>
-      <c r="J16" s="12">
-        <f>SUM(F16:I16)</f>
-        <v>254226</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="9" t="s">
+      <c r="J16" s="11">
+        <v>66288</v>
+      </c>
+      <c r="K16" s="11">
+        <f>SUM(F16:J16)</f>
+        <v>320514</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>330</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>321</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>93</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>384</v>
       </c>
-      <c r="J18" s="12">
-        <f t="shared" ref="J18:J19" si="5">SUM(F18:I18)</f>
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="11">
+        <v>7</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" ref="K18:K19" si="7">SUM(F18:J18)</f>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>1173</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>1765</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>2934</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>1623</v>
       </c>
-      <c r="J19" s="12">
-        <f t="shared" si="5"/>
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J19" s="11">
+        <v>2652</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="7"/>
+        <v>10147</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="11">
-        <f t="shared" ref="F21:J21" si="6">SUM(F22:F26)</f>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21:K21" si="8">SUM(F22:F26)</f>
         <v>22779</v>
       </c>
-      <c r="G21" s="11">
-        <f t="shared" si="6"/>
+      <c r="G21" s="10">
+        <f t="shared" si="8"/>
         <v>14538</v>
       </c>
-      <c r="H21" s="11">
-        <f t="shared" si="6"/>
+      <c r="H21" s="10">
+        <f t="shared" si="8"/>
         <v>49782</v>
       </c>
-      <c r="I21" s="11">
-        <f t="shared" si="6"/>
+      <c r="I21" s="10">
+        <f t="shared" si="8"/>
         <v>40937.68</v>
       </c>
-      <c r="J21" s="11">
-        <f t="shared" si="6"/>
-        <v>128036.68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="10">
+        <f t="shared" si="8"/>
+        <v>19014</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="8"/>
+        <v>147050.68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>11117</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>4224</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>33403</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>25695</v>
       </c>
-      <c r="J22" s="12">
-        <f t="shared" ref="J22:J26" si="7">SUM(F22:I22)</f>
-        <v>74439</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="11">
+        <v>8917</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" ref="K22:K26" si="9">SUM(F22:J22)</f>
+        <v>83356</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>1904</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>1858</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>7028</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>4035.68</v>
       </c>
-      <c r="J23" s="12">
-        <f t="shared" si="7"/>
-        <v>14825.68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="11">
+        <v>6907</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="9"/>
+        <v>21732.68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>4</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>4</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <v>12</v>
       </c>
-      <c r="J24" s="12">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="11">
+        <v>45</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>1199</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>2370</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>2191</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>1551</v>
       </c>
-      <c r="J25" s="12">
-        <f t="shared" si="7"/>
-        <v>7311</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="11">
+        <v>2255</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="9"/>
+        <v>9566</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>8559</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>6082</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>7156</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>9644</v>
       </c>
-      <c r="J26" s="12">
-        <f t="shared" si="7"/>
-        <v>31441</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J26" s="11">
+        <v>890</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="9"/>
+        <v>32331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <v>2</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>59</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>5</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>115</v>
       </c>
-      <c r="J28" s="12">
-        <f>SUM(F28:I28)</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="J28" s="11">
+        <v>343</v>
+      </c>
+      <c r="K28" s="11">
+        <f>SUM(F28:J28)</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11">
-        <f t="shared" ref="F30:J30" si="8">SUM(F32:F38)</f>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10">
+        <f t="shared" ref="F30:K30" si="10">SUM(F32:F38)</f>
         <v>301457</v>
       </c>
-      <c r="G30" s="11">
-        <f t="shared" si="8"/>
+      <c r="G30" s="10">
+        <f t="shared" si="10"/>
         <v>318202</v>
       </c>
-      <c r="H30" s="11">
-        <f t="shared" si="8"/>
+      <c r="H30" s="10">
+        <f t="shared" si="10"/>
         <v>481549</v>
       </c>
-      <c r="I30" s="11">
-        <f t="shared" si="8"/>
+      <c r="I30" s="10">
+        <f t="shared" si="10"/>
         <v>343013</v>
       </c>
-      <c r="J30" s="11">
-        <f t="shared" si="8"/>
-        <v>1444221</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="10">
+        <f t="shared" si="10"/>
+        <v>451700</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="10"/>
+        <v>1895921</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>79922</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <v>93367</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>94067</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>85507</v>
       </c>
-      <c r="J32" s="12">
-        <f t="shared" ref="J32:J38" si="9">SUM(F32:I32)</f>
-        <v>352863</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="11">
+        <v>88982</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" ref="K32:K38" si="11">SUM(F32:J32)</f>
+        <v>441845</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>65551</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>28230</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>55548</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <v>37303</v>
       </c>
-      <c r="J33" s="12">
-        <f t="shared" si="9"/>
-        <v>186632</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="11">
+        <v>33831</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="11"/>
+        <v>220463</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <f>F13+F14+F18</f>
         <v>3382</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <f>G13+G14+G18</f>
         <v>1936</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="12">
         <f>H13+H14+H18</f>
         <v>1310</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="12">
         <f>I13+I14+I18</f>
         <v>5612</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="9"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>J13+J14+J18</f>
+        <v>4421</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="11"/>
+        <v>16661</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="12">
+        <v>49</v>
+      </c>
+      <c r="F35" s="11">
         <v>2869</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>5688</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>10717</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <v>5117</v>
       </c>
-      <c r="J35" s="12">
-        <f t="shared" si="9"/>
-        <v>24391</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="11">
+        <v>7905</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="11"/>
+        <v>32296</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <v>47</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>449</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <v>47</v>
       </c>
-      <c r="J36" s="12">
-        <f t="shared" si="9"/>
-        <v>543</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="11">
+        <v>9</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="11"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>1</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>13</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>724</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <v>1437</v>
       </c>
-      <c r="J37" s="12">
-        <f t="shared" si="9"/>
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J37" s="11">
+        <v>5292</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="11"/>
+        <v>7467</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="14">
+        <v>50</v>
+      </c>
+      <c r="F38" s="12">
         <f>134494+18620-F34</f>
         <v>149732</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="12">
         <f>172644+18213-G34</f>
         <v>188921</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="12">
         <f>294173+25871-H34</f>
         <v>318734</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="12">
         <f>193612+19990-I34</f>
         <v>207990</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="9"/>
-        <v>865377</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+        <f>286442+29239-J34</f>
+        <v>311260</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="11"/>
+        <v>1176637</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="15">
-        <f t="shared" ref="F40:J40" si="10">+F9-F30</f>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="13">
+        <f t="shared" ref="F40:K40" si="12">+F9-F30</f>
         <v>-23382</v>
       </c>
-      <c r="G40" s="15">
-        <f t="shared" si="10"/>
+      <c r="G40" s="13">
+        <f t="shared" si="12"/>
         <v>-105800</v>
       </c>
-      <c r="H40" s="15">
-        <f t="shared" si="10"/>
+      <c r="H40" s="13">
+        <f t="shared" si="12"/>
         <v>-187666</v>
       </c>
-      <c r="I40" s="15">
-        <f t="shared" si="10"/>
+      <c r="I40" s="13">
+        <f t="shared" si="12"/>
         <v>4935.679999999993</v>
       </c>
-      <c r="J40" s="15">
-        <f t="shared" si="10"/>
-        <v>-311912.32000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="J40" s="13">
+        <f t="shared" si="12"/>
+        <v>-146785</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="12"/>
+        <v>-458697.32000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11">
-        <f t="shared" ref="F42:J42" si="11">+F43+F47</f>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10">
+        <f t="shared" ref="F42:K42" si="13">+F43+F47</f>
         <v>437212</v>
       </c>
-      <c r="G42" s="11">
-        <f t="shared" si="11"/>
+      <c r="G42" s="10">
+        <f t="shared" si="13"/>
         <v>50928</v>
       </c>
-      <c r="H42" s="11">
-        <f t="shared" ref="H42:I42" si="12">+H43+H47</f>
+      <c r="H42" s="10">
+        <f t="shared" ref="H42:I42" si="14">+H43+H47</f>
         <v>581967</v>
       </c>
-      <c r="I42" s="11">
-        <f t="shared" si="12"/>
+      <c r="I42" s="10">
+        <f t="shared" si="14"/>
         <v>95588</v>
       </c>
-      <c r="J42" s="11">
-        <f t="shared" si="11"/>
-        <v>1165695</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="10">
+        <f t="shared" ref="J42" si="15">+J43+J47</f>
+        <v>-282583</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="13"/>
+        <v>883112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="16">
-        <f t="shared" ref="F43:J43" si="13">+F44-F45</f>
+      <c r="F43" s="14">
+        <f t="shared" ref="F43:K43" si="16">+F44-F45</f>
         <v>91661</v>
       </c>
-      <c r="G43" s="16">
-        <f t="shared" si="13"/>
+      <c r="G43" s="14">
+        <f t="shared" si="16"/>
         <v>6262</v>
       </c>
-      <c r="H43" s="16">
-        <f t="shared" ref="H43:I43" si="14">+H44-H45</f>
+      <c r="H43" s="14">
+        <f t="shared" ref="H43:I43" si="17">+H44-H45</f>
         <v>123793</v>
       </c>
-      <c r="I43" s="16">
-        <f t="shared" si="14"/>
+      <c r="I43" s="14">
+        <f t="shared" si="17"/>
         <v>29211</v>
       </c>
-      <c r="J43" s="16">
-        <f t="shared" si="13"/>
-        <v>250927</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="14">
+        <f t="shared" ref="J43" si="18">+J44-J45</f>
+        <v>-11904</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="16"/>
+        <v>239023</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>93579</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <v>8121</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>131322</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <v>34883</v>
       </c>
-      <c r="J44" s="12">
-        <f t="shared" ref="J44:J45" si="15">SUM(F44:I44)</f>
-        <v>267905</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="11">
+        <v>11709</v>
+      </c>
+      <c r="K44" s="11">
+        <f t="shared" ref="K44:K45" si="19">SUM(F44:J44)</f>
+        <v>279614</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <v>1918</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>1859</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>7529</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <v>5672</v>
       </c>
-      <c r="J45" s="12">
-        <f t="shared" si="15"/>
-        <v>16978</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J45" s="11">
+        <v>23613</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="19"/>
+        <v>40591</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="11">
-        <f t="shared" ref="F47:J47" si="16">+F48-F49</f>
+      <c r="F47" s="10">
+        <f t="shared" ref="F47:K47" si="20">+F48-F49</f>
         <v>345551</v>
       </c>
-      <c r="G47" s="11">
-        <f t="shared" si="16"/>
+      <c r="G47" s="10">
+        <f t="shared" si="20"/>
         <v>44666</v>
       </c>
-      <c r="H47" s="11">
-        <f t="shared" si="16"/>
+      <c r="H47" s="10">
+        <f t="shared" si="20"/>
         <v>458174</v>
       </c>
-      <c r="I47" s="11">
-        <f t="shared" si="16"/>
+      <c r="I47" s="10">
+        <f t="shared" si="20"/>
         <v>66377</v>
       </c>
-      <c r="J47" s="11">
-        <f t="shared" si="16"/>
-        <v>914768</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="10">
+        <f t="shared" si="20"/>
+        <v>-270679</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="20"/>
+        <v>644089</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>345551</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>45000</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>458566</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <v>66377</v>
       </c>
-      <c r="J48" s="12">
-        <f t="shared" ref="J48:J51" si="17">SUM(F48:I48)</f>
-        <v>915494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J48" s="11">
+        <v>-270679</v>
+      </c>
+      <c r="K48" s="11">
+        <f>SUM(F48:J48)</f>
+        <v>644815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="17">
-        <f t="shared" ref="F49:I49" si="18">F50-F51</f>
+      <c r="F49" s="15">
+        <f t="shared" ref="F49:J49" si="21">F50-F51</f>
         <v>0</v>
       </c>
-      <c r="G49" s="17">
-        <f t="shared" si="18"/>
+      <c r="G49" s="15">
+        <f t="shared" si="21"/>
         <v>334</v>
       </c>
-      <c r="H49" s="17">
-        <f t="shared" si="18"/>
+      <c r="H49" s="15">
+        <f t="shared" si="21"/>
         <v>392</v>
       </c>
-      <c r="I49" s="17">
-        <f t="shared" si="18"/>
+      <c r="I49" s="15">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J49" s="12">
-        <f t="shared" si="17"/>
+      <c r="J49" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" ref="K49" si="22">SUM(F49:I49)</f>
         <v>726</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <v>148369</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <v>334</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <v>4312</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <v>0</v>
       </c>
-      <c r="J50" s="12">
-        <f t="shared" si="17"/>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <f t="shared" ref="K50:K51" si="23">SUM(F50:J50)</f>
         <v>153015</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E51" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="12">
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E51" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="11">
         <v>148369</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>0</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>3920</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <v>0</v>
       </c>
-      <c r="J51" s="12">
-        <f t="shared" si="17"/>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="23"/>
         <v>152289</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="1:15" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="17">
         <v>468678</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="17">
         <v>-139054</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="17">
         <v>320585</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="17">
         <v>801216</v>
       </c>
-      <c r="J53" s="13">
-        <f>SUM(F53:I53)</f>
-        <v>1451425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="J53" s="17">
+        <v>-512579</v>
+      </c>
+      <c r="K53" s="17">
+        <f>SUM(F53:J53)</f>
+        <v>938846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" s="25" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-    </row>
-    <row r="57" spans="1:15" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
+      <c r="B55" s="24"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:16" s="25" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+    </row>
+    <row r="57" spans="1:16" s="25" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-    </row>
-    <row r="58" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
+      <c r="B57" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="1:16" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B58" s="28" t="s">
@@ -1704,34 +1844,42 @@
       <c r="D58" s="29"/>
       <c r="E58" s="30"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:16" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+    </row>
+    <row r="60" spans="1:16" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="O60" s="23"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="P61" s="22"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="MjMyzeDly+hVEOw6mj5qSwvxDENbLJMppJbfT5knH0y8eIMu9eKdKMVtxmCrEfQksId5D4k1YGQwwZdlsJgMHQ==" saltValue="qJznguJtNuNLPFOVDdMbwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="A7:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.85" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.6" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
 &amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>
